--- a/Test_Case_Anca_Dinu.xlsx
+++ b/Test_Case_Anca_Dinu.xlsx
@@ -477,10 +477,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -568,6 +568,88 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Test Cases</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$3</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$2:$B$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="2520000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1741,7 +1823,7 @@
       <c r="A12" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="inlineStr">
+      <c r="B12" s="36" t="inlineStr">
         <is>
           <t>Password Verification</t>
         </is>
@@ -1771,7 +1853,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="H12" s="37" t="inlineStr">
+      <c r="H12" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -1785,7 +1867,7 @@
       <c r="A13" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="37" t="inlineStr">
+      <c r="B13" s="36" t="inlineStr">
         <is>
           <t>Password Size</t>
         </is>
@@ -1815,7 +1897,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="H13" s="37" t="inlineStr">
+      <c r="H13" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -1829,7 +1911,7 @@
       <c r="A14" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="37" t="inlineStr">
+      <c r="B14" s="36" t="inlineStr">
         <is>
           <t>Incorrect Password Message</t>
         </is>
@@ -1859,7 +1941,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H14" s="37" t="inlineStr">
+      <c r="H14" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -1875,7 +1957,7 @@
       <c r="A15" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="37" t="inlineStr">
+      <c r="B15" s="36" t="inlineStr">
         <is>
           <t xml:space="preserve">Incorrect Password less than four digit  </t>
         </is>
@@ -1905,7 +1987,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H15" s="37" t="inlineStr">
+      <c r="H15" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -1923,7 +2005,7 @@
       <c r="A16" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="37" t="inlineStr">
+      <c r="B16" s="36" t="inlineStr">
         <is>
           <t>Incorrect four digit Password</t>
         </is>
@@ -1953,7 +2035,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H16" s="37" t="inlineStr">
+      <c r="H16" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -1971,7 +2053,7 @@
       <c r="A17" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="37" t="inlineStr">
+      <c r="B17" s="36" t="inlineStr">
         <is>
           <t xml:space="preserve">Incorrect Password greater than four digit </t>
         </is>
@@ -2001,7 +2083,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H17" s="37" t="inlineStr">
+      <c r="H17" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2019,7 +2101,7 @@
       <c r="A18" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="37" t="inlineStr">
+      <c r="B18" s="36" t="inlineStr">
         <is>
           <t>Incorrect Password consisting of numbers and letters</t>
         </is>
@@ -2049,7 +2131,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H18" s="37" t="inlineStr">
+      <c r="H18" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2067,7 +2149,7 @@
       <c r="A19" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="37" t="inlineStr">
+      <c r="B19" s="36" t="inlineStr">
         <is>
           <t>Incorrect Password consisting of  letters</t>
         </is>
@@ -2097,7 +2179,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H19" s="37" t="inlineStr">
+      <c r="H19" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2115,7 +2197,7 @@
       <c r="A20" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="37" t="inlineStr">
+      <c r="B20" s="36" t="inlineStr">
         <is>
           <t>Set a new Password</t>
         </is>
@@ -2145,7 +2227,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H20" s="37" t="inlineStr">
+      <c r="H20" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2161,7 +2243,7 @@
       <c r="A21" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="37" t="inlineStr">
+      <c r="B21" s="36" t="inlineStr">
         <is>
           <t>The lighting up of the led</t>
         </is>
@@ -2191,7 +2273,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H21" s="37" t="inlineStr">
+      <c r="H21" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2207,7 +2289,7 @@
       <c r="A22" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="37" t="inlineStr">
+      <c r="B22" s="36" t="inlineStr">
         <is>
           <t>The Led Function</t>
         </is>
@@ -2237,7 +2319,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H22" s="37" t="inlineStr">
+      <c r="H22" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2253,7 +2335,7 @@
       <c r="A23" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="37" t="inlineStr">
+      <c r="B23" s="36" t="inlineStr">
         <is>
           <t>Welcome Message</t>
         </is>
@@ -2283,7 +2365,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H23" s="37" t="inlineStr">
+      <c r="H23" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2299,7 +2381,7 @@
       <c r="A24" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="37" t="inlineStr">
+      <c r="B24" s="36" t="inlineStr">
         <is>
           <t>Delay 3000 ms</t>
         </is>
@@ -2329,7 +2411,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H24" s="37" t="inlineStr">
+      <c r="H24" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2345,7 +2427,7 @@
       <c r="A25" s="31" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="37" t="inlineStr">
+      <c r="B25" s="36" t="inlineStr">
         <is>
           <t>The Unlocked message</t>
         </is>
@@ -2375,7 +2457,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="H25" s="37" t="inlineStr">
+      <c r="H25" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2389,7 +2471,7 @@
       <c r="A26" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="37" t="inlineStr">
+      <c r="B26" s="36" t="inlineStr">
         <is>
           <t>The message Locked</t>
         </is>
@@ -2419,7 +2501,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H26" s="37" t="inlineStr">
+      <c r="H26" s="36" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -2433,181 +2515,181 @@
     </row>
     <row r="27">
       <c r="A27" s="31" t="n"/>
-      <c r="B27" s="37" t="n"/>
+      <c r="B27" s="36" t="n"/>
       <c r="C27" s="40" t="n"/>
       <c r="D27" s="40" t="n"/>
       <c r="E27" s="40" t="n"/>
       <c r="F27" s="40" t="n"/>
       <c r="G27" s="40" t="n"/>
-      <c r="H27" s="37" t="n"/>
+      <c r="H27" s="36" t="n"/>
       <c r="I27" s="40" t="n"/>
       <c r="J27" s="40" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="31" t="n"/>
-      <c r="B28" s="37" t="n"/>
+      <c r="B28" s="36" t="n"/>
       <c r="C28" s="40" t="n"/>
       <c r="D28" s="40" t="n"/>
       <c r="E28" s="40" t="n"/>
       <c r="F28" s="40" t="n"/>
       <c r="G28" s="40" t="n"/>
-      <c r="H28" s="37" t="n"/>
+      <c r="H28" s="36" t="n"/>
       <c r="I28" s="40" t="n"/>
       <c r="J28" s="40" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="31" t="n"/>
-      <c r="B29" s="37" t="n"/>
+      <c r="B29" s="36" t="n"/>
       <c r="C29" s="40" t="n"/>
       <c r="D29" s="40" t="n"/>
       <c r="E29" s="40" t="n"/>
       <c r="F29" s="40" t="n"/>
       <c r="G29" s="40" t="n"/>
-      <c r="H29" s="37" t="n"/>
+      <c r="H29" s="36" t="n"/>
       <c r="I29" s="40" t="n"/>
       <c r="J29" s="40" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="31" t="n"/>
-      <c r="B30" s="37" t="n"/>
+      <c r="B30" s="36" t="n"/>
       <c r="C30" s="40" t="n"/>
       <c r="D30" s="40" t="n"/>
       <c r="E30" s="40" t="n"/>
       <c r="F30" s="40" t="n"/>
       <c r="G30" s="40" t="n"/>
-      <c r="H30" s="37" t="n"/>
+      <c r="H30" s="36" t="n"/>
       <c r="I30" s="40" t="n"/>
       <c r="J30" s="40" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="31" t="n"/>
-      <c r="B31" s="37" t="n"/>
+      <c r="B31" s="36" t="n"/>
       <c r="C31" s="40" t="n"/>
       <c r="D31" s="40" t="n"/>
       <c r="E31" s="40" t="n"/>
       <c r="F31" s="40" t="n"/>
       <c r="G31" s="40" t="n"/>
-      <c r="H31" s="37" t="n"/>
+      <c r="H31" s="36" t="n"/>
       <c r="I31" s="40" t="n"/>
       <c r="J31" s="40" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="31" t="n"/>
-      <c r="B32" s="37" t="n"/>
+      <c r="B32" s="36" t="n"/>
       <c r="C32" s="40" t="n"/>
       <c r="D32" s="40" t="n"/>
       <c r="E32" s="40" t="n"/>
       <c r="F32" s="40" t="n"/>
       <c r="G32" s="40" t="n"/>
-      <c r="H32" s="37" t="n"/>
+      <c r="H32" s="36" t="n"/>
       <c r="I32" s="40" t="n"/>
       <c r="J32" s="40" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="31" t="n"/>
-      <c r="B33" s="37" t="n"/>
+      <c r="B33" s="36" t="n"/>
       <c r="C33" s="40" t="n"/>
       <c r="D33" s="40" t="n"/>
       <c r="E33" s="40" t="n"/>
       <c r="F33" s="40" t="n"/>
       <c r="G33" s="40" t="n"/>
-      <c r="H33" s="37" t="n"/>
+      <c r="H33" s="36" t="n"/>
       <c r="I33" s="40" t="n"/>
       <c r="J33" s="40" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="31" t="n"/>
-      <c r="B34" s="37" t="n"/>
+      <c r="B34" s="36" t="n"/>
       <c r="C34" s="40" t="n"/>
       <c r="D34" s="40" t="n"/>
       <c r="E34" s="40" t="n"/>
       <c r="F34" s="40" t="n"/>
       <c r="G34" s="40" t="n"/>
-      <c r="H34" s="37" t="n"/>
+      <c r="H34" s="36" t="n"/>
       <c r="I34" s="40" t="n"/>
       <c r="J34" s="40" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="31" t="n"/>
-      <c r="B35" s="37" t="n"/>
+      <c r="B35" s="36" t="n"/>
       <c r="C35" s="40" t="n"/>
       <c r="D35" s="40" t="n"/>
       <c r="E35" s="40" t="n"/>
       <c r="F35" s="40" t="n"/>
       <c r="G35" s="40" t="n"/>
-      <c r="H35" s="37" t="n"/>
+      <c r="H35" s="36" t="n"/>
       <c r="I35" s="40" t="n"/>
       <c r="J35" s="40" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="31" t="n"/>
-      <c r="B36" s="37" t="n"/>
+      <c r="B36" s="36" t="n"/>
       <c r="C36" s="40" t="n"/>
       <c r="D36" s="40" t="n"/>
       <c r="E36" s="40" t="n"/>
       <c r="F36" s="40" t="n"/>
       <c r="G36" s="40" t="n"/>
-      <c r="H36" s="37" t="n"/>
+      <c r="H36" s="36" t="n"/>
       <c r="I36" s="40" t="n"/>
       <c r="J36" s="40" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="31" t="n"/>
-      <c r="B37" s="37" t="n"/>
+      <c r="B37" s="36" t="n"/>
       <c r="C37" s="40" t="n"/>
       <c r="D37" s="40" t="n"/>
       <c r="E37" s="40" t="n"/>
       <c r="F37" s="40" t="n"/>
       <c r="G37" s="40" t="n"/>
-      <c r="H37" s="37" t="n"/>
+      <c r="H37" s="36" t="n"/>
       <c r="I37" s="40" t="n"/>
       <c r="J37" s="40" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="31" t="n"/>
-      <c r="B38" s="37" t="n"/>
+      <c r="B38" s="36" t="n"/>
       <c r="C38" s="40" t="n"/>
       <c r="D38" s="40" t="n"/>
       <c r="E38" s="40" t="n"/>
       <c r="F38" s="40" t="n"/>
       <c r="G38" s="40" t="n"/>
-      <c r="H38" s="37" t="n"/>
+      <c r="H38" s="36" t="n"/>
       <c r="I38" s="40" t="n"/>
       <c r="J38" s="40" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="31" t="n"/>
-      <c r="B39" s="37" t="n"/>
+      <c r="B39" s="36" t="n"/>
       <c r="C39" s="40" t="n"/>
       <c r="D39" s="40" t="n"/>
       <c r="E39" s="40" t="n"/>
       <c r="F39" s="40" t="n"/>
       <c r="G39" s="40" t="n"/>
-      <c r="H39" s="37" t="n"/>
+      <c r="H39" s="36" t="n"/>
       <c r="I39" s="40" t="n"/>
       <c r="J39" s="40" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="31" t="n"/>
-      <c r="B40" s="37" t="n"/>
+      <c r="B40" s="36" t="n"/>
       <c r="C40" s="40" t="n"/>
       <c r="D40" s="40" t="n"/>
       <c r="E40" s="40" t="n"/>
       <c r="F40" s="40" t="n"/>
       <c r="G40" s="40" t="n"/>
-      <c r="H40" s="37" t="n"/>
+      <c r="H40" s="36" t="n"/>
       <c r="I40" s="40" t="n"/>
       <c r="J40" s="40" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="31" t="n"/>
-      <c r="B41" s="37" t="n"/>
+      <c r="B41" s="36" t="n"/>
       <c r="C41" s="40" t="n"/>
       <c r="D41" s="40" t="n"/>
       <c r="E41" s="40" t="n"/>
       <c r="F41" s="40" t="n"/>
       <c r="G41" s="40" t="n"/>
-      <c r="H41" s="37" t="n"/>
+      <c r="H41" s="36" t="n"/>
       <c r="I41" s="40" t="n"/>
       <c r="J41" s="40" t="n"/>
     </row>
@@ -6097,7 +6179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6129,7 +6211,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -6139,7 +6221,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6149,10 +6231,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test_Case_Anca_Dinu.xlsx
+++ b/Test_Case_Anca_Dinu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="528" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="528" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="test cases" sheetId="1" state="visible" r:id="rId1"/>
@@ -577,6 +577,409 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Test Cases</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <strRef>
+              <f>Report!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Failed test cases</v>
+                </pt>
+                <pt idx="1">
+                  <v>Passed test cases</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Report!$B$2:$B$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>12</v>
+                </pt>
+                <pt idx="1">
+                  <v>4</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Test Cases</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <strRef>
+              <f>Report!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Failed test cases</v>
+                </pt>
+                <pt idx="1">
+                  <v>Passed test cases</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Report!$B$2:$B$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>12</v>
+                </pt>
+                <pt idx="1">
+                  <v>4</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Test Cases</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <strRef>
+              <f>Report!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Failed test cases</v>
+                </pt>
+                <pt idx="1">
+                  <v>Passed test cases</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Report!$B$2:$B$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>12</v>
+                </pt>
+                <pt idx="1">
+                  <v>4</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Test Cases</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <strRef>
+              <f>Report!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Failed test cases</v>
+                </pt>
+                <pt idx="1">
+                  <v>Passed test cases</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Report!$B$2:$B$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>12</v>
+                </pt>
+                <pt idx="1">
+                  <v>4</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Test Cases</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$3</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$2:$B$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
@@ -644,6 +1047,116 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="2520000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="2520000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="2520000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="2520000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="2520000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -921,11 +1434,11 @@
   </sheetPr>
   <dimension ref="A1:J349"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:H6"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2245,12 +2758,12 @@
       </c>
       <c r="B21" s="36" t="inlineStr">
         <is>
-          <t>The lighting up of the led</t>
+          <t>The lighting up of the bulb</t>
         </is>
       </c>
       <c r="C21" s="40" t="inlineStr">
         <is>
-          <t>Check if the led lights up when the correct password is entered</t>
+          <t>Check if the bulb lights up when the correct password is entered</t>
         </is>
       </c>
       <c r="D21" s="40" t="inlineStr">
@@ -2260,7 +2773,7 @@
       </c>
       <c r="E21" s="40" t="inlineStr">
         <is>
-          <t>The Led should lights up only when correct password is entered</t>
+          <t>The bulb should lights up only when correct password is entered</t>
         </is>
       </c>
       <c r="F21" s="29" t="inlineStr">
@@ -2291,12 +2804,12 @@
       </c>
       <c r="B22" s="36" t="inlineStr">
         <is>
-          <t>The Led Function</t>
+          <t>The bulb Function</t>
         </is>
       </c>
       <c r="C22" s="40" t="inlineStr">
         <is>
-          <t>Check if the LED is off for the entire duration of the program, except for the case when the correct pasword is entered</t>
+          <t>Check if the BULB is off for the entire duration of the program, except for the case when the correct pasword is entered</t>
         </is>
       </c>
       <c r="D22" s="40" t="inlineStr">
@@ -2306,7 +2819,7 @@
       </c>
       <c r="E22" s="40" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Led should be turned off </t>
+          <t xml:space="preserve">The bulb should be turned off </t>
         </is>
       </c>
       <c r="F22" s="29" t="inlineStr">
@@ -6102,7 +6615,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -6190,7 +6703,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
